--- a/TaiLieu/KeHoach.xlsx
+++ b/TaiLieu/KeHoach.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDED73C4-87AD-493C-B83C-9B0E639C7647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Ke hoach thuc hien" sheetId="3" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="PeriodInPlan">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
     <definedName name="Plan">PeriodInPlan*(#REF!&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -124,11 +123,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -224,12 +223,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -245,13 +238,22 @@
     </font>
     <font>
       <sz val="13"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -370,7 +372,7 @@
     <xf numFmtId="3" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -394,44 +396,44 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -442,17 +444,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Activity" xfId="2"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Style 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Style 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Percent Complete" xfId="6"/>
+    <cellStyle name="Period Headers" xfId="3"/>
+    <cellStyle name="Period Highlight Control" xfId="7"/>
+    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Style 1" xfId="8"/>
+    <cellStyle name="Style 2" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -703,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -749,268 +751,268 @@
         <v>19</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="E3" s="10"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="19"/>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>43899</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <f>C4</f>
         <v>43899</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <f>B6+6</f>
         <v>43905</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <f>B6+7</f>
         <v>43906</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <f t="shared" ref="C7:C20" si="0">B7+6</f>
         <v>43912</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <f t="shared" ref="B8:B20" si="1">B7+7</f>
         <v>43913</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>43919</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <f t="shared" si="1"/>
         <v>43920</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <f t="shared" si="0"/>
         <v>43926</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <f t="shared" si="1"/>
         <v>43927</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>6</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <f t="shared" si="1"/>
         <v>43934</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <f t="shared" si="0"/>
         <v>43940</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>7</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <f t="shared" si="1"/>
         <v>43941</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <f t="shared" si="0"/>
         <v>43947</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>8</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <f t="shared" si="1"/>
         <v>43948</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>43954</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>9</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <f t="shared" si="1"/>
         <v>43955</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <f t="shared" si="0"/>
         <v>43961</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <f t="shared" si="1"/>
         <v>43962</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <f t="shared" si="0"/>
         <v>43968</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <f t="shared" si="1"/>
         <v>43969</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <f t="shared" si="0"/>
         <v>43975</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <f t="shared" si="1"/>
         <v>43976</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>43982</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>13</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <f t="shared" si="1"/>
         <v>43983</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <f t="shared" si="0"/>
         <v>43989</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>14</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <f t="shared" si="1"/>
         <v>43990</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <f t="shared" si="0"/>
         <v>43996</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>15</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <f t="shared" si="1"/>
         <v>43997</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <f t="shared" si="0"/>
         <v>44003</v>
       </c>

--- a/TaiLieu/KeHoach.xlsx
+++ b/TaiLieu/KeHoach.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Ke hoach thuc hien" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>KẾ HOẠCH THỰC HIỆN ĐỒ ÁN</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Châu Thị Bảo Hà</t>
+  </si>
+  <si>
+    <t>- Báo cáo và phản biện.</t>
   </si>
 </sst>
 </file>
@@ -708,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1019,9 @@
         <f t="shared" si="0"/>
         <v>44003</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
